--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -494,6 +494,182 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:23:21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:37:17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:41:08</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:42:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:43:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:44:05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:48:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11-02 19:49:50</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tasks.py, line 29</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -670,6 +670,28 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-11-04 10:38:24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>tasks.py, line 22</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Testing!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -692,6 +692,28 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-04 10:44:36</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tasks.py, line 22</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Testing!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -714,6 +714,28 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:04:02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tasks.py, line 22</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Testing!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -736,6 +736,28 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:18:28</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tasks.py, line 54</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>getLocationsFromExcel() missing 1 required positional argument: 'default_locations'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -758,6 +758,94 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:23:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tasks.py, line 35</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>getRecipienEmails() missing 1 required positional argument: 'administrators'</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:24:04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tasks.py, line 35</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>getRecipienEmails() missing 1 required positional argument: 'administrators'</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:25:09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>tasks.py, line 35</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>getRecipienEmails() missing 1 required positional argument: 'administrators'</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:26:13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tasks.py, line 35</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>getRecipienEmails() missing 1 required positional argument: 'administrators'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/error_log.xlsx
+++ b/error_log.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -846,6 +846,28 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:50:14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tasks.py, line 26</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Testing!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
